--- a/inst/extdata/matrix_test/stressor_response_matrix.xlsx
+++ b/inst/extdata/matrix_test/stressor_response_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE994697-00D1-4B94-B78D-D8A7938BA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18FE4C9-15C3-4D61-9B77-4D914158A769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -3468,7 +3468,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
